--- a/references/schedule.xlsx
+++ b/references/schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho" hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_5_modelo_clusterizacao_classificacao_app_delivery\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_1_eda_telecom\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47819B2B-C1CC-4310-9753-CA1C50A5CA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DDFF70-6F92-4543-A070-7127F26262E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9B6D4990-42CD-4CA7-863E-3F7B63FF2202}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Nome da Tarefa</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Exploratory Data Analysis (EDA)</t>
   </si>
   <si>
-    <t>Deployment</t>
-  </si>
-  <si>
     <t>Definição do Desafio</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>Análise Exploratória</t>
   </si>
   <si>
-    <t>Deploy em Produção</t>
-  </si>
-  <si>
     <t>Cientista de Dados</t>
   </si>
   <si>
@@ -131,18 +125,6 @@
   </si>
   <si>
     <t>Data Processing</t>
-  </si>
-  <si>
-    <t>Model Selection</t>
-  </si>
-  <si>
-    <t>Model Training</t>
-  </si>
-  <si>
-    <t>Seleção do Modelo</t>
-  </si>
-  <si>
-    <t>Treinamento do Modelo</t>
   </si>
 </sst>
 </file>
@@ -283,22 +265,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm;@"/>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -429,11 +396,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Linha do Tempo 1" pivot="0" table="0" count="8" xr9:uid="{52153AD7-0907-468F-A228-FC343C1E76FF}">
-      <tableStyleElement type="wholeTable" dxfId="33"/>
-      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
     </tableStyle>
     <tableStyle name="Estilo de Segmentação de Dados 1" pivot="0" table="0" count="3" xr9:uid="{FDE6E4C7-9916-4C60-92F6-8C897BF1D2DF}">
-      <tableStyleElement type="wholeTable" dxfId="31"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2189,7 +2156,7 @@
             <c:strRef>
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Challenge</c:v>
                 </c:pt>
@@ -2205,15 +2172,6 @@
                 <c:pt idx="4">
                   <c:v>Exploratory Data Analysis (EDA)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Model Selection</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Model Training</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Deployment</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -2222,7 +2180,7 @@
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm;@</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>45536</c:v>
                 </c:pt>
@@ -2237,15 +2195,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>45546</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45549</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45556</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2339,7 +2288,7 @@
             <c:strRef>
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Challenge</c:v>
                 </c:pt>
@@ -2355,15 +2304,6 @@
                 <c:pt idx="4">
                   <c:v>Exploratory Data Analysis (EDA)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Model Selection</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Model Training</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Deployment</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -2372,7 +2312,7 @@
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2386,16 +2326,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2487,7 +2418,7 @@
             <c:strRef>
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Challenge</c:v>
                 </c:pt>
@@ -2503,15 +2434,6 @@
                 <c:pt idx="4">
                   <c:v>Exploratory Data Analysis (EDA)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Model Selection</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Model Training</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Deployment</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -2520,7 +2442,7 @@
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2534,15 +2456,6 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -2639,7 +2552,7 @@
             <c:strRef>
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Challenge</c:v>
                 </c:pt>
@@ -2655,15 +2568,6 @@
                 <c:pt idx="4">
                   <c:v>Exploratory Data Analysis (EDA)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Model Selection</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Model Training</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Deployment</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -2672,7 +2576,7 @@
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2686,15 +2590,6 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -2772,7 +2667,7 @@
         <c:axId val="1820083823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45565"/>
+          <c:max val="45550"/>
           <c:min val="45536"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3746,13 +3641,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matheus Resende" refreshedDate="45565.573805555556" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{8A3E0842-8E5A-489C-BFB1-EDEEAC84A9EE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matheus Resende" refreshedDate="45566.888834606485" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="5" xr:uid="{8A3E0842-8E5A-489C-BFB1-EDEEAC84A9EE}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela4"/>
   </cacheSource>
   <cacheFields count="17">
     <cacheField name="ID Tarefa" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="Nome da Tarefa" numFmtId="0">
       <sharedItems count="30">
@@ -3761,9 +3656,9 @@
         <s v="Project Details"/>
         <s v="Data Processing"/>
         <s v="Exploratory Data Analysis (EDA)"/>
-        <s v="Model Selection"/>
-        <s v="Model Training"/>
-        <s v="Deployment"/>
+        <s v="Model Selection" u="1"/>
+        <s v="Model Training" u="1"/>
+        <s v="Deployment" u="1"/>
         <s v="Feature Engineering" u="1"/>
         <s v="Models Selection" u="1"/>
         <s v="Models Training" u="1"/>
@@ -3801,9 +3696,9 @@
         <d v="2024-09-06T00:00:00"/>
         <d v="2024-09-08T00:00:00"/>
         <d v="2024-09-11T00:00:00"/>
-        <d v="2024-09-14T00:00:00"/>
-        <d v="2024-09-21T00:00:00"/>
-        <d v="2024-09-28T00:00:00"/>
+        <d v="2024-09-14T00:00:00" u="1"/>
+        <d v="2024-09-21T00:00:00" u="1"/>
+        <d v="2024-09-28T00:00:00" u="1"/>
         <d v="2024-09-10T00:00:00" u="1"/>
         <d v="2024-09-12T00:00:00" u="1"/>
         <d v="2024-09-18T00:00:00" u="1"/>
@@ -3836,10 +3731,10 @@
       <fieldGroup par="10"/>
     </cacheField>
     <cacheField name="Data de Término Prevista" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-09-03T00:00:00" maxDate="2024-10-01T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-09-03T00:00:00" maxDate="2024-09-16T00:00:00"/>
     </cacheField>
     <cacheField name="Duração Estimada (dias)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="7"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
     </cacheField>
     <cacheField name="% de Conclusão" numFmtId="9">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
@@ -3849,7 +3744,7 @@
     </cacheField>
     <cacheField name="Dias (Data de Início Prevista)" numFmtId="0" databaseField="0">
       <fieldGroup base="4">
-        <rangePr groupBy="days" startDate="2024-09-01T00:00:00" endDate="2024-09-29T00:00:00"/>
+        <rangePr groupBy="days" startDate="2024-09-01T00:00:00" endDate="2024-09-12T00:00:00"/>
         <groupItems count="368">
           <s v="&lt;01/09/2024"/>
           <s v="01/jan"/>
@@ -4218,13 +4113,13 @@
           <s v="29/dez"/>
           <s v="30/dez"/>
           <s v="31/dez"/>
-          <s v="&gt;29/09/2024"/>
+          <s v="&gt;12/09/2024"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="Meses (Data de Início Prevista)" numFmtId="0" databaseField="0">
       <fieldGroup base="4">
-        <rangePr groupBy="months" startDate="2024-09-01T00:00:00" endDate="2024-09-29T00:00:00"/>
+        <rangePr groupBy="months" startDate="2024-09-01T00:00:00" endDate="2024-09-12T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;01/09/2024"/>
           <s v="jan"/>
@@ -4239,7 +4134,7 @@
           <s v="out"/>
           <s v="nov"/>
           <s v="dez"/>
-          <s v="&gt;29/09/2024"/>
+          <s v="&gt;12/09/2024"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -4259,7 +4154,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -4310,41 +4205,8 @@
     <s v="Análise Exploratória"/>
     <s v="Cientista de Dados"/>
     <x v="4"/>
-    <d v="2024-09-14T00:00:00"/>
-    <n v="3"/>
-    <n v="1"/>
-    <s v="Concluído"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <x v="5"/>
-    <s v="Seleção do Modelo"/>
-    <s v="Cientista de Dados"/>
-    <x v="5"/>
-    <d v="2024-09-21T00:00:00"/>
-    <n v="7"/>
-    <n v="1"/>
-    <s v="Concluído"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <x v="6"/>
-    <s v="Treinamento do Modelo"/>
-    <s v="Cientista de Dados"/>
-    <x v="6"/>
-    <d v="2024-09-28T00:00:00"/>
-    <n v="7"/>
-    <n v="1"/>
-    <s v="Concluído"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <x v="7"/>
-    <s v="Deploy em Produção"/>
-    <s v="Cientista de Dados"/>
-    <x v="7"/>
-    <d v="2024-09-30T00:00:00"/>
-    <n v="2"/>
+    <d v="2024-09-15T00:00:00"/>
+    <n v="4"/>
     <n v="1"/>
     <s v="Concluído"/>
   </r>
@@ -4352,8 +4214,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00757DE2-1DBA-4008-9A82-BBC123A3CF4C}" name="Tabela dinâmica5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="A2:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00757DE2-1DBA-4008-9A82-BBC123A3CF4C}" name="Tabela dinâmica5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
+  <location ref="A2:E7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -4385,9 +4247,9 @@
         <item m="1" x="10"/>
         <item m="1" x="11"/>
         <item m="1" x="13"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4425,11 +4287,11 @@
         <item m="1" x="16"/>
         <item x="1"/>
         <item m="1" x="8"/>
-        <item x="5"/>
+        <item m="1" x="5"/>
         <item m="1" x="10"/>
-        <item x="6"/>
+        <item m="1" x="6"/>
         <item m="1" x="11"/>
-        <item x="7"/>
+        <item m="1" x="7"/>
         <item x="3"/>
         <item t="default"/>
       </items>
@@ -4467,7 +4329,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="5">
     <i>
       <x v="16"/>
     </i>
@@ -4482,15 +4344,6 @@
     </i>
     <i>
       <x v="21"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -4517,7 +4370,7 @@
     <dataField name="Soma de DURAÇÃO PREVISTA" fld="14" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="19">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4526,10 +4379,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -4539,7 +4392,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4548,7 +4401,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4621,26 +4474,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}" name="Tabela4" displayName="Tabela4" ref="A1:I9" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A1:I9" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}" name="Tabela4" displayName="Tabela4" ref="A1:I6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:I6" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4935668C-20D6-4C22-879A-3659A8472489}" name="ID Tarefa" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{4935668C-20D6-4C22-879A-3659A8472489}" name="ID Tarefa" dataDxfId="23">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E5AC6DCD-2443-40D5-B1A6-0A271666E5FF}" name="Nome da Tarefa" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{B241719C-F57F-47B5-A51F-A3BC561CE106}" name="Descrição da Tarefa" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{14F0C3FA-44D0-46F8-8AE3-F91974A2ABBD}" name="Responsável" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{AC92E2DC-DD13-4ED1-A800-0D7BC6D22FEC}" name="Data de Início Prevista" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{EC9E00E2-887E-410C-BA83-944AEDDAFBEB}" name="Data de Término Prevista" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{A18BD8B9-8163-48BB-A9DB-6C81D8B727BA}" name="Duração Estimada (dias)" dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{E5AC6DCD-2443-40D5-B1A6-0A271666E5FF}" name="Nome da Tarefa" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{B241719C-F57F-47B5-A51F-A3BC561CE106}" name="Descrição da Tarefa" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{14F0C3FA-44D0-46F8-8AE3-F91974A2ABBD}" name="Responsável" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{AC92E2DC-DD13-4ED1-A800-0D7BC6D22FEC}" name="Data de Início Prevista" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{EC9E00E2-887E-410C-BA83-944AEDDAFBEB}" name="Data de Término Prevista" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{A18BD8B9-8163-48BB-A9DB-6C81D8B727BA}" name="Duração Estimada (dias)" dataDxfId="17">
       <calculatedColumnFormula>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{013ED01F-B4C2-405A-8C9D-AF38C61E4A03}" name="% de Conclusão" dataDxfId="21" dataCellStyle="Porcentagem">
+    <tableColumn id="8" xr3:uid="{013ED01F-B4C2-405A-8C9D-AF38C61E4A03}" name="% de Conclusão" dataDxfId="16" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
 IF($L$1&gt;Tabela4[[#This Row],[Data de Início Prevista]],($L$1-Tabela4[[#This Row],[Data de Início Prevista]])/(Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]),
 IF($L$1&lt;Tabela4[[#This Row],[Data de Início Prevista]],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3B969088-A833-4A54-91FC-BCBCD8D77079}" name="Status" dataDxfId="20">
+    <tableColumn id="9" xr3:uid="{3B969088-A833-4A54-91FC-BCBCD8D77079}" name="Status" dataDxfId="15">
       <calculatedColumnFormula>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
 IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
 IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</calculatedColumnFormula>
@@ -4968,11 +4821,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3E397D-2BA9-4AFB-B32C-FFE2506EB2F2}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5020,7 +4873,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L1" s="10">
         <v>45566</v>
@@ -5028,17 +4881,17 @@
     </row>
     <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <f t="shared" ref="A2:A9" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A6" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>45536</v>
@@ -5072,10 +4925,10 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2">
         <v>45538</v>
@@ -5109,10 +4962,10 @@
         <v>16</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>45541</v>
@@ -5143,13 +4996,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2">
         <v>45543</v>
@@ -5183,20 +5036,20 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="2">
         <v>45546</v>
       </c>
       <c r="F6" s="2">
-        <v>45549</v>
+        <v>45550</v>
       </c>
       <c r="G6" s="1">
         <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3">
         <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
@@ -5205,117 +5058,6 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
-IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
-IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</f>
-        <v>Concluído</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45549</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45556</v>
-      </c>
-      <c r="G7" s="1">
-        <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>7</v>
-      </c>
-      <c r="H7" s="3">
-        <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
-IF($L$1&gt;Tabela4[[#This Row],[Data de Início Prevista]],($L$1-Tabela4[[#This Row],[Data de Início Prevista]])/(Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]),
-IF($L$1&lt;Tabela4[[#This Row],[Data de Início Prevista]],0)))</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
-IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
-IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</f>
-        <v>Concluído</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2">
-        <v>45556</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45563</v>
-      </c>
-      <c r="G8" s="1">
-        <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>7</v>
-      </c>
-      <c r="H8" s="3">
-        <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
-IF($L$1&gt;Tabela4[[#This Row],[Data de Início Prevista]],($L$1-Tabela4[[#This Row],[Data de Início Prevista]])/(Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]),
-IF($L$1&lt;Tabela4[[#This Row],[Data de Início Prevista]],0)))</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
-IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
-IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</f>
-        <v>Concluído</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2">
-        <v>45563</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45565</v>
-      </c>
-      <c r="G9" s="1">
-        <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="3">
-        <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
-IF($L$1&gt;Tabela4[[#This Row],[Data de Início Prevista]],($L$1-Tabela4[[#This Row],[Data de Início Prevista]])/(Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]),
-IF($L$1&lt;Tabela4[[#This Row],[Data de Início Prevista]],0)))</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="str">
         <f>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
 IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
 IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</f>
@@ -5428,7 +5170,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="13">
         <v>45543</v>
@@ -5451,7 +5193,7 @@
         <v>45546</v>
       </c>
       <c r="C7" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="9" t="e">
         <v>#N/A</v>
@@ -5461,55 +5203,22 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="13">
-        <v>45549</v>
-      </c>
-      <c r="C8" s="15">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E8" s="15" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="13">
-        <v>45556</v>
-      </c>
-      <c r="C9" s="15">
-        <v>7</v>
-      </c>
-      <c r="D9" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E9" s="15" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="13">
-        <v>45563</v>
-      </c>
-      <c r="C10" s="15">
-        <v>2</v>
-      </c>
-      <c r="D10" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E10" s="15" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11"/>
@@ -5537,7 +5246,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -5562,7 +5271,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
